--- a/download.xlsx
+++ b/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\main\Desktop\Python\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE1DED-3B69-4845-99BC-D65FF116D6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73221795-92DC-4D72-A609-68A84DD33632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DC9B249F-080B-42C5-83E3-2056D571E00D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>_MODEL_</t>
   </si>
@@ -47,103 +47,43 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>УШМ-115-800 М3</t>
   </si>
   <si>
     <t>Углошлифовальная машина ЗУБР УШМ-115-800 М3, 115 мм 800 Вт</t>
   </si>
   <si>
+    <t>УШМ-125-1100 ТМ3</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-125-1100 ТМ3  125 мм  1100Вт</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/ugloshlifovalnaya_mashina_zubr_master_ushm-125-1100_tm3/</t>
+  </si>
+  <si>
+    <t>УШМ-125-1200 ЭМЗ</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-125-1200, 125мм  1200Вт</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/setevye-uglovye-shlifmashiny-bolgarki/zubr/ushm-125-1200-em3/</t>
+  </si>
+  <si>
+    <t>00000015295</t>
+  </si>
+  <si>
+    <t>00000015296</t>
+  </si>
+  <si>
+    <t>00000015302</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
     <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/115-800-m3/</t>
-  </si>
-  <si>
-    <t>УШМ-125-1100 ТМ3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-1100 ТМ3  125 мм  1100Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/ugloshlifovalnaya_mashina_zubr_master_ushm-125-1100_tm3/</t>
-  </si>
-  <si>
-    <t>УШМ-125-1200 ЭМЗ</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-1200, 125мм  1200Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/setevye-uglovye-shlifmashiny-bolgarki/zubr/ushm-125-1200-em3/</t>
-  </si>
-  <si>
-    <t>УШМ-125-800 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-800 М3, 125 мм  800 Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/125-800-m3/</t>
-  </si>
-  <si>
-    <t>УШМ-125-950 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-950 М3, 125 мм  950 Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/uglovaya-shlifmashina-zubr-ushm-125-950-m3/</t>
-  </si>
-  <si>
-    <t>УШМ-150-1400 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-150-1400 М3,  150 мм 1400Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/master-ushm-150-1400-m3/</t>
-  </si>
-  <si>
-    <t>УШМ-180-1800 ПМ3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-180-1800 ПМ3 плавный пуск, 180 мм  1800 В</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/_ugloshlifovalnaya_mashina_zubr_master_ushm-180-1800_pm3/</t>
-  </si>
-  <si>
-    <t>УШМ-230-2100 ПМ3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-230-2100 ПМ3, плавный пуск, 230 мм  2100 В</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/ugloshlifovalnaya_mashina_zubr_master_ushm-230-2100_pm3/</t>
-  </si>
-  <si>
-    <t>00000015295</t>
-  </si>
-  <si>
-    <t>00000015296</t>
-  </si>
-  <si>
-    <t>00000015302</t>
-  </si>
-  <si>
-    <t>00000015297</t>
-  </si>
-  <si>
-    <t>00000015298</t>
-  </si>
-  <si>
-    <t>00000015299</t>
-  </si>
-  <si>
-    <t>00000015300</t>
-  </si>
-  <si>
-    <t>00000015301</t>
   </si>
 </sst>
 </file>
@@ -497,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E607D6-8FD5-427E-B789-6022752D1BA8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,119 +460,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/download.xlsx
+++ b/download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\main\Desktop\Python\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73221795-92DC-4D72-A609-68A84DD33632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548F896-0985-4FCE-860A-4DD56BA58265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DC9B249F-080B-42C5-83E3-2056D571E00D}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/download.xlsx
+++ b/download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\main\Desktop\Python\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548F896-0985-4FCE-860A-4DD56BA58265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D95DA8-376A-40A1-9C2A-700B71DEA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DC9B249F-080B-42C5-83E3-2056D571E00D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{DC9B249F-080B-42C5-83E3-2056D571E00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>_MODEL_</t>
   </si>
@@ -71,6 +71,57 @@
     <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/setevye-uglovye-shlifmashiny-bolgarki/zubr/ushm-125-1200-em3/</t>
   </si>
   <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/115-800-m3/</t>
+  </si>
+  <si>
+    <t>УШМ-125-800 М3</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-125-800 М3, 125 мм  800 Вт</t>
+  </si>
+  <si>
+    <t>УШМ-125-950 М3</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-125-950 М3, 125 мм  950 Вт</t>
+  </si>
+  <si>
+    <t>УШМ-150-1400 М3</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-150-1400 М3,  150 мм 1400Вт</t>
+  </si>
+  <si>
+    <t>УШМ-180-1800 ПМ3</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-180-1800 ПМ3 плавный пуск, 180 мм  1800 В</t>
+  </si>
+  <si>
+    <t>УШМ-230-2100 ПМ3</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина ЗУБР УШМ-230-2100 ПМ3, плавный пуск, 230 мм  2100 В</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/125-800-m3/</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/uglovaya-shlifmashina-zubr-ushm-125-950-m3/</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/master-ushm-150-1400-m3/</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/_ugloshlifovalnaya_mashina_zubr_master_ushm-180-1800_pm3/</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/ugloshlifovalnaya_mashina_zubr_master_ushm-230-2100_pm3/</t>
+  </si>
+  <si>
     <t>00000015295</t>
   </si>
   <si>
@@ -80,10 +131,19 @@
     <t>00000015302</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/115-800-m3/</t>
+    <t>00000015297</t>
+  </si>
+  <si>
+    <t>00000015298</t>
+  </si>
+  <si>
+    <t>00000015299</t>
+  </si>
+  <si>
+    <t>00000015300</t>
+  </si>
+  <si>
+    <t>00000015301</t>
   </si>
 </sst>
 </file>
@@ -437,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E607D6-8FD5-427E-B789-6022752D1BA8}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,12 +520,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -474,12 +534,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -493,7 +553,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -503,6 +563,76 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/download.xlsx
+++ b/download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\main\Desktop\Python\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D95DA8-376A-40A1-9C2A-700B71DEA393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2010D68-E74C-4624-A9E2-C15C95058CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="9960" xr2:uid="{DC9B249F-080B-42C5-83E3-2056D571E00D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DC9B249F-080B-42C5-83E3-2056D571E00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>_MODEL_</t>
   </si>
@@ -47,103 +47,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>УШМ-115-800 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-115-800 М3, 115 мм 800 Вт</t>
-  </si>
-  <si>
-    <t>УШМ-125-1100 ТМ3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-1100 ТМ3  125 мм  1100Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/ugloshlifovalnaya_mashina_zubr_master_ushm-125-1100_tm3/</t>
-  </si>
-  <si>
-    <t>УШМ-125-1200 ЭМЗ</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-1200, 125мм  1200Вт</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/setevye-uglovye-shlifmashiny-bolgarki/zubr/ushm-125-1200-em3/</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/115-800-m3/</t>
-  </si>
-  <si>
-    <t>УШМ-125-800 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-800 М3, 125 мм  800 Вт</t>
-  </si>
-  <si>
-    <t>УШМ-125-950 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-125-950 М3, 125 мм  950 Вт</t>
-  </si>
-  <si>
-    <t>УШМ-150-1400 М3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-150-1400 М3,  150 мм 1400Вт</t>
-  </si>
-  <si>
-    <t>УШМ-180-1800 ПМ3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-180-1800 ПМ3 плавный пуск, 180 мм  1800 В</t>
-  </si>
-  <si>
-    <t>УШМ-230-2100 ПМ3</t>
-  </si>
-  <si>
-    <t>Углошлифовальная машина ЗУБР УШМ-230-2100 ПМ3, плавный пуск, 230 мм  2100 В</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/125-800-m3/</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/uglovaya-shlifmashina-zubr-ushm-125-950-m3/</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/zubr/master-ushm-150-1400-m3/</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/_ugloshlifovalnaya_mashina_zubr_master_ushm-180-1800_pm3/</t>
-  </si>
-  <si>
-    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka_ushm/zubr/ugloshlifovalnaya_mashina_zubr_master_ushm-230-2100_pm3/</t>
-  </si>
-  <si>
-    <t>00000015295</t>
-  </si>
-  <si>
-    <t>00000015296</t>
-  </si>
-  <si>
-    <t>00000015302</t>
-  </si>
-  <si>
-    <t>00000015297</t>
-  </si>
-  <si>
-    <t>00000015298</t>
-  </si>
-  <si>
-    <t>00000015299</t>
-  </si>
-  <si>
-    <t>00000015300</t>
-  </si>
-  <si>
-    <t>00000015301</t>
+    <t>00000018809</t>
+  </si>
+  <si>
+    <t>018809</t>
+  </si>
+  <si>
+    <t>Углошлифовальная машина УШМ-115/800 Ресанта 75/12/1</t>
+  </si>
+  <si>
+    <t>https://www.vseinstrumenti.ru/instrument/shlifmashiny/bolgarka-ushm/resanta/ushm-115-800-75-12-1/</t>
   </si>
 </sst>
 </file>
@@ -497,16 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E607D6-8FD5-427E-B789-6022752D1BA8}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -520,119 +438,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
